--- a/biology/Zoologie/Cervinae/Cervinae.xlsx
+++ b/biology/Zoologie/Cervinae/Cervinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cervinae sont une sous-famille de mammifères cervidés eurasiatiques comprenant les cerfs et les daims.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 genre Axis Hamilton Smith, 1827
@@ -551,9 +565,43 @@
 Rusa alfredi Sclater, 1870
 Rusa marianna Desmarest, 1822
 Rusa timorensis Blainville, 1822
-Rusa unicolor Kerr, 1792
-Genres éteints
-Selon PBDB
+Rusa unicolor Kerr, 1792</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cervinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres éteints</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon PBDB
 † Amphiprox
 † Candiacervus
 † Cervavitus
@@ -571,37 +619,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cervinae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cervinae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cladogramme</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant est basé sur l'étude de Gilbert et al. 2006[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -623,12 +640,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est basé sur l'étude de Gilbert et al. 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cervinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces préhistoriques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles connus de la sous-famille Cervinae montrent qu'elle est dérivée des Pliocervinae du sud-est de l'Europe et de Chine[2]. Akhtar et al. mentionnent Bubenik (1990) qui voit la tribu Pliocervini comme un passage évolutionnaire important entre le Dicrocerini du Miocène moyen et les Cervini du Plio-Pléistocène[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles connus de la sous-famille Cervinae montrent qu'elle est dérivée des Pliocervinae du sud-est de l'Europe et de Chine. Akhtar et al. mentionnent Bubenik (1990) qui voit la tribu Pliocervini comme un passage évolutionnaire important entre le Dicrocerini du Miocène moyen et les Cervini du Plio-Pléistocène.
 </t>
         </is>
       </c>
